--- a/docs/v1-1-0c BOM.xlsx
+++ b/docs/v1-1-0c BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Motherboards\GitHub\1-1-0\Aquarius-Motherboard-1-1-0\eagle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Motherboards\GitHub\1-1-0\Aquarius-Motherboard-1-1-0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8025E4D9-7ED1-42CF-BBF0-E9EB6D4538B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFB4520-4129-4845-9402-B1A93DD0581F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1-1-0c" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="384">
   <si>
     <t>Part</t>
   </si>
@@ -964,18 +964,6 @@
     <t xml:space="preserve"> MARQUARDT SWITCH 9077.0100</t>
   </si>
   <si>
-    <t>TR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R-TRIMM10MM-DUAL</t>
-  </si>
-  <si>
-    <t>10MM-DUAL</t>
-  </si>
-  <si>
-    <t>Trimm resistor</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -1169,12 +1157,27 @@
   </si>
   <si>
     <t>PNP-TO90</t>
+  </si>
+  <si>
+    <t>L-V1</t>
+  </si>
+  <si>
+    <t>CL20 54-1 36CB</t>
+  </si>
+  <si>
+    <t>10MM-VAR-IND</t>
+  </si>
+  <si>
+    <t>10uH @ 4.43MHz</t>
+  </si>
+  <si>
+    <t>Variable Inductor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2009,11 +2012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162:XFD162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3585,27 +3588,24 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>176</v>
+        <v>382</v>
       </c>
       <c r="C77" t="s">
-        <v>177</v>
-      </c>
-      <c r="D77" t="s">
-        <v>178</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77" t="s">
-        <v>179</v>
+        <v>381</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E77" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>176</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>176</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>176</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>176</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>176</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>176</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>176</v>
@@ -3745,39 +3745,39 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C85" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D85" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E85">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C86" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="E86">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F86" t="s">
         <v>26</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>191</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>191</v>
@@ -3825,7 +3825,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>191</v>
@@ -3845,27 +3845,30 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>381</v>
+        <v>191</v>
       </c>
       <c r="C90" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="D90" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="F90" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C91" t="s">
         <v>196</v>
@@ -3879,16 +3882,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C92" t="s">
         <v>196</v>
       </c>
       <c r="D92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3896,16 +3899,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C93" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D93" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3913,16 +3916,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C94" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3930,16 +3933,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C95" t="s">
         <v>196</v>
       </c>
       <c r="D95" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3947,16 +3950,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C96" t="s">
         <v>196</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3964,10 +3967,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C97" t="s">
         <v>196</v>
@@ -3981,30 +3984,24 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>209</v>
+        <v>377</v>
       </c>
       <c r="C98" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D98" t="s">
-        <v>211</v>
-      </c>
-      <c r="E98" t="s">
-        <v>212</v>
-      </c>
-      <c r="F98">
-        <v>36</v>
-      </c>
-      <c r="G98" t="s">
-        <v>213</v>
+        <v>197</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>209</v>
@@ -4027,7 +4024,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>209</v>
@@ -4050,7 +4047,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>209</v>
@@ -4073,13 +4070,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C102" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D102" t="s">
         <v>211</v>
@@ -4096,10 +4093,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>220</v>
-      </c>
-      <c r="B103" s="1">
-        <v>820</v>
+        <v>217</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="C103" t="s">
         <v>219</v>
@@ -4119,7 +4116,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B104" s="1">
         <v>820</v>
@@ -4142,7 +4139,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B105" s="1">
         <v>820</v>
@@ -4165,7 +4162,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B106" s="1">
         <v>820</v>
@@ -4188,7 +4185,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B107" s="1">
         <v>820</v>
@@ -4211,7 +4208,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B108" s="1">
         <v>820</v>
@@ -4234,7 +4231,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B109" s="1">
         <v>820</v>
@@ -4257,7 +4254,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B110" s="1">
         <v>820</v>
@@ -4280,13 +4277,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>228</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
+      </c>
+      <c r="B111" s="1">
+        <v>820</v>
       </c>
       <c r="C111" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D111" t="s">
         <v>211</v>
@@ -4303,13 +4300,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C112" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D112" t="s">
         <v>211</v>
@@ -4326,13 +4323,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C113" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D113" t="s">
         <v>211</v>
@@ -4349,13 +4346,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C114" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D114" t="s">
         <v>211</v>
@@ -4372,13 +4369,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C115" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D115" t="s">
         <v>211</v>
@@ -4395,7 +4392,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>233</v>
@@ -4418,10 +4415,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C117" t="s">
         <v>210</v>
@@ -4441,10 +4438,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C118" t="s">
         <v>210</v>
@@ -4464,13 +4461,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C119" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D119" t="s">
         <v>211</v>
@@ -4487,10 +4484,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>243</v>
-      </c>
-      <c r="B120" s="1">
-        <v>100</v>
+        <v>242</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="C120" t="s">
         <v>219</v>
@@ -4510,10 +4507,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>244</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+      <c r="B121" s="1">
+        <v>100</v>
       </c>
       <c r="C121" t="s">
         <v>219</v>
@@ -4533,10 +4530,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C122" t="s">
         <v>219</v>
@@ -4556,10 +4553,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C123" t="s">
         <v>219</v>
@@ -4579,7 +4576,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>245</v>
@@ -4602,13 +4599,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C125" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D125" t="s">
         <v>211</v>
@@ -4625,13 +4622,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>252</v>
-      </c>
-      <c r="B126" s="1">
-        <v>100</v>
+        <v>250</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C126" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D126" t="s">
         <v>211</v>
@@ -4648,10 +4645,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>253</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
+      </c>
+      <c r="B127" s="1">
+        <v>100</v>
       </c>
       <c r="C127" t="s">
         <v>219</v>
@@ -4671,13 +4668,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C128" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D128" t="s">
         <v>211</v>
@@ -4694,13 +4691,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>256</v>
-      </c>
-      <c r="B129" s="1">
-        <v>820</v>
+        <v>254</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="C129" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D129" t="s">
         <v>211</v>
@@ -4717,13 +4714,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>257</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
+      </c>
+      <c r="B130" s="1">
+        <v>820</v>
       </c>
       <c r="C130" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D130" t="s">
         <v>211</v>
@@ -4740,10 +4737,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C131" t="s">
         <v>210</v>
@@ -4763,10 +4760,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="C132" t="s">
         <v>210</v>
@@ -4786,10 +4783,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C133" t="s">
         <v>210</v>
@@ -4809,13 +4806,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>264</v>
-      </c>
-      <c r="B134" s="1">
-        <v>560</v>
+        <v>262</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="C134" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D134" t="s">
         <v>211</v>
@@ -4832,10 +4829,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B135" s="1">
-        <v>820</v>
+        <v>560</v>
       </c>
       <c r="C135" t="s">
         <v>219</v>
@@ -4855,13 +4852,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B136" s="1">
-        <v>82</v>
+        <v>820</v>
       </c>
       <c r="C136" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D136" t="s">
         <v>211</v>
@@ -4878,13 +4875,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B137" s="1">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="C137" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D137" t="s">
         <v>211</v>
@@ -4901,10 +4898,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B138" s="1">
-        <v>680</v>
+        <v>180</v>
       </c>
       <c r="C138" t="s">
         <v>219</v>
@@ -4924,10 +4921,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B139" s="1">
-        <v>510</v>
+        <v>680</v>
       </c>
       <c r="C139" t="s">
         <v>219</v>
@@ -4947,13 +4944,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>270</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
+      </c>
+      <c r="B140" s="1">
+        <v>510</v>
       </c>
       <c r="C140" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D140" t="s">
         <v>211</v>
@@ -4970,13 +4967,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>272</v>
-      </c>
-      <c r="B141" s="1">
-        <v>470</v>
+        <v>270</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="C141" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D141" t="s">
         <v>211</v>
@@ -4993,10 +4990,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>273</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
+      </c>
+      <c r="B142" s="1">
+        <v>470</v>
       </c>
       <c r="C142" t="s">
         <v>219</v>
@@ -5016,10 +5013,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>275</v>
-      </c>
-      <c r="B143" s="1">
-        <v>510</v>
+        <v>273</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="C143" t="s">
         <v>219</v>
@@ -5039,13 +5036,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>276</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
+      </c>
+      <c r="B144" s="1">
+        <v>510</v>
       </c>
       <c r="C144" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D144" t="s">
         <v>211</v>
@@ -5062,10 +5059,10 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C145" t="s">
         <v>210</v>
@@ -5085,13 +5082,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C146" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D146" t="s">
         <v>211</v>
@@ -5108,13 +5105,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C147" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D147" t="s">
         <v>211</v>
@@ -5131,7 +5128,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>281</v>
@@ -5154,13 +5151,13 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C149" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D149" t="s">
         <v>211</v>
@@ -5177,13 +5174,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C150" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D150" t="s">
         <v>211</v>
@@ -5200,10 +5197,10 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="C151" t="s">
         <v>210</v>
@@ -5223,13 +5220,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="C152" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D152" t="s">
         <v>211</v>
@@ -5246,13 +5243,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C153" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D153" t="s">
         <v>211</v>
@@ -5269,10 +5266,10 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C154" t="s">
         <v>210</v>
@@ -5292,13 +5289,13 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C155" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D155" t="s">
         <v>211</v>
@@ -5315,10 +5312,10 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C156" t="s">
         <v>219</v>
@@ -5338,10 +5335,10 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C157" t="s">
         <v>219</v>
@@ -5361,93 +5358,99 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C158" t="s">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="D158" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="E158" t="s">
-        <v>304</v>
-      </c>
-      <c r="F158" t="s">
-        <v>305</v>
+        <v>212</v>
+      </c>
+      <c r="F158">
+        <v>36</v>
       </c>
       <c r="G158" t="s">
-        <v>306</v>
-      </c>
-      <c r="H158">
-        <v>1</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C159" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D159" t="s">
-        <v>309</v>
+        <v>303</v>
+      </c>
+      <c r="E159" t="s">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
+        <v>305</v>
+      </c>
+      <c r="G159" t="s">
+        <v>306</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C160" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D160" t="s">
-        <v>312</v>
-      </c>
-      <c r="E160" t="s">
-        <v>313</v>
-      </c>
-      <c r="F160">
-        <v>1</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C161" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D161" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E161" t="s">
-        <v>26</v>
+        <v>313</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C162" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D162" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -5455,16 +5458,16 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C163" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D163" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -5472,16 +5475,16 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C164" t="s">
+        <v>320</v>
+      </c>
+      <c r="D164" t="s">
         <v>324</v>
-      </c>
-      <c r="D164" t="s">
-        <v>328</v>
       </c>
       <c r="E164" t="s">
         <v>305</v>
@@ -5495,16 +5498,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C165" t="s">
+        <v>320</v>
+      </c>
+      <c r="D165" t="s">
         <v>324</v>
-      </c>
-      <c r="D165" t="s">
-        <v>328</v>
       </c>
       <c r="E165" t="s">
         <v>305</v>
@@ -5518,16 +5521,16 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C166" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D166" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -5535,19 +5538,19 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C167" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D167" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E167" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -5555,19 +5558,19 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C168" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D168" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E168" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F168" t="s">
         <v>26</v>
@@ -5575,16 +5578,16 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C169" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D169" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -5592,19 +5595,19 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C170" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D170" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E170" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -5612,19 +5615,19 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B171" s="1">
         <v>7805</v>
       </c>
       <c r="C171" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D171" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E171" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F171">
         <v>57</v>
@@ -5635,19 +5638,19 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C172" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D172" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E172" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -5655,16 +5658,16 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C173" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D173" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -5672,19 +5675,19 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C174" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D174" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E174" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -5692,19 +5695,19 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C175" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D175" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E175" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -5712,19 +5715,19 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C176" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D176" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E176" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -5732,19 +5735,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C177" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D177" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E177" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -5752,16 +5755,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C178" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D178" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E178">
         <v>12</v>
@@ -5772,16 +5775,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C179" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D179" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E179">
         <v>12</v>
@@ -5792,16 +5795,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C180" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D180" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E180">
         <v>2</v>
@@ -5809,16 +5812,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C181" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D181" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E181">
         <v>6</v>

--- a/docs/v1-1-0c BOM.xlsx
+++ b/docs/v1-1-0c BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Motherboards\GitHub\1-1-0\Aquarius-Motherboard-1-1-0\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harrington\Box\Retro\Aquarius\Motherboards\GitHub\1-1-0\Aquarius-Motherboard-1-1-0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFB4520-4129-4845-9402-B1A93DD0581F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25958B8F-A892-46CC-B5B6-FDB80EDADCE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="330" windowWidth="28800" windowHeight="18495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1-1-0c" sheetId="1" r:id="rId1"/>
@@ -2013,21 +2013,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A162" sqref="A162:XFD162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2108,7 +2111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2478,7 +2481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2498,7 +2501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -2561,7 +2564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2684,7 +2687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -2776,7 +2779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -2819,7 +2822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -2865,7 +2868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -2908,7 +2911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -2948,7 +2951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -3011,7 +3014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>112</v>
       </c>
@@ -3048,7 +3051,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>120</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>121</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>123</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>130</v>
       </c>
@@ -3235,7 +3238,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>132</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>134</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>135</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -3383,7 +3386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -3400,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -3426,7 +3429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>155</v>
       </c>
@@ -3446,7 +3449,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>160</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -3486,7 +3489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>168</v>
       </c>
@@ -3506,7 +3509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>169</v>
       </c>
@@ -3526,7 +3529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>170</v>
       </c>
@@ -3546,7 +3549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>174</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>379</v>
       </c>
@@ -3603,7 +3606,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>175</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>180</v>
       </c>
@@ -3643,7 +3646,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -3663,7 +3666,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>182</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>183</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>184</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>185</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>186</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>187</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -3803,7 +3806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>192</v>
       </c>
@@ -3823,7 +3826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>193</v>
       </c>
@@ -3843,7 +3846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>194</v>
       </c>
@@ -3863,7 +3866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>195</v>
       </c>
@@ -3880,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>198</v>
       </c>
@@ -3897,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>199</v>
       </c>
@@ -3914,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>201</v>
       </c>
@@ -3931,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>204</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>205</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>206</v>
       </c>
@@ -3982,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>207</v>
       </c>
@@ -3999,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>208</v>
       </c>
@@ -4022,7 +4025,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>214</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>215</v>
       </c>
@@ -4068,7 +4071,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>216</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>217</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>220</v>
       </c>
@@ -4137,7 +4140,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>221</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>222</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>223</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>224</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>225</v>
       </c>
@@ -4252,7 +4255,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>226</v>
       </c>
@@ -4275,7 +4278,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>227</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>228</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>230</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>232</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>234</v>
       </c>
@@ -4390,7 +4393,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>236</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>237</v>
       </c>
@@ -4436,7 +4439,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>238</v>
       </c>
@@ -4459,7 +4462,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>240</v>
       </c>
@@ -4482,7 +4485,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>242</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>243</v>
       </c>
@@ -4528,7 +4531,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>244</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>248</v>
       </c>
@@ -4597,7 +4600,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -4620,7 +4623,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -4643,7 +4646,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>253</v>
       </c>
@@ -4689,7 +4692,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>254</v>
       </c>
@@ -4712,7 +4715,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>256</v>
       </c>
@@ -4735,7 +4738,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>257</v>
       </c>
@@ -4758,7 +4761,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>259</v>
       </c>
@@ -4781,7 +4784,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>261</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>262</v>
       </c>
@@ -4827,7 +4830,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>264</v>
       </c>
@@ -4850,7 +4853,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>265</v>
       </c>
@@ -4873,7 +4876,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>266</v>
       </c>
@@ -4896,7 +4899,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>267</v>
       </c>
@@ -4919,7 +4922,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>268</v>
       </c>
@@ -4942,7 +4945,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>269</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>270</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>272</v>
       </c>
@@ -5011,7 +5014,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>273</v>
       </c>
@@ -5034,7 +5037,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>275</v>
       </c>
@@ -5057,7 +5060,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>276</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>277</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>278</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>280</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>282</v>
       </c>
@@ -5172,7 +5175,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>283</v>
       </c>
@@ -5195,7 +5198,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>285</v>
       </c>
@@ -5218,7 +5221,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>287</v>
       </c>
@@ -5241,7 +5244,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>288</v>
       </c>
@@ -5264,7 +5267,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>290</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>292</v>
       </c>
@@ -5310,7 +5313,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>294</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>296</v>
       </c>
@@ -5356,7 +5359,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>298</v>
       </c>
@@ -5379,7 +5382,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>300</v>
       </c>
@@ -5405,7 +5408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>307</v>
       </c>
@@ -5419,7 +5422,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>310</v>
       </c>
@@ -5439,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>314</v>
       </c>
@@ -5456,7 +5459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>318</v>
       </c>
@@ -5473,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>322</v>
       </c>
@@ -5496,7 +5499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>325</v>
       </c>
@@ -5519,7 +5522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>326</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>327</v>
       </c>
@@ -5556,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>331</v>
       </c>
@@ -5576,7 +5579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>334</v>
       </c>
@@ -5593,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>336</v>
       </c>
@@ -5613,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>339</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>343</v>
       </c>
@@ -5656,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>347</v>
       </c>
@@ -5673,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>350</v>
       </c>
@@ -5693,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>353</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>357</v>
       </c>
@@ -5733,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>360</v>
       </c>
@@ -5753,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>363</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>367</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>368</v>
       </c>
@@ -5810,7 +5813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>372</v>
       </c>
@@ -5828,6 +5831,8 @@
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="64" fitToHeight="5" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/v1-1-0c BOM.xlsx
+++ b/docs/v1-1-0c BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Motherboards\GitHub\1-1-0\Aquarius-Motherboard-1-1-0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8168236A-0AC4-4B5E-80FF-82ACEEFEFA00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7D61AA-B1BF-4980-839C-2D4ECC448707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1-1-0c" sheetId="1" r:id="rId1"/>
@@ -844,9 +844,6 @@
     <t>56k</t>
   </si>
   <si>
-    <t>390k</t>
-  </si>
-  <si>
     <t>560k</t>
   </si>
   <si>
@@ -983,6 +980,9 @@
   </si>
   <si>
     <t>SHDR4W155P0X396_1X4_</t>
+  </si>
+  <si>
+    <t>390</t>
   </si>
 </sst>
 </file>
@@ -1840,18 +1840,18 @@
   </sheetPr>
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="18.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1862,13 +1862,13 @@
         <v>237</v>
       </c>
       <c r="D1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1882,10 +1882,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1899,10 +1899,10 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1916,10 +1916,10 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1933,10 +1933,10 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1950,10 +1950,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1967,10 +1967,10 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1984,10 +1984,10 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2015,13 +2015,13 @@
         <v>256</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2035,10 +2035,10 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2069,10 +2069,10 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2086,10 +2086,10 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2103,10 +2103,10 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2120,10 +2120,10 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2137,10 +2137,10 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2154,10 +2154,10 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2171,10 +2171,10 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2188,10 +2188,10 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2205,10 +2205,10 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2222,10 +2222,10 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2239,10 +2239,10 @@
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2256,10 +2256,10 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2273,10 +2273,10 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2290,10 +2290,10 @@
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2307,10 +2307,10 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2324,10 +2324,10 @@
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2341,10 +2341,10 @@
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2358,10 +2358,10 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2375,10 +2375,10 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2392,10 +2392,10 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2406,13 +2406,13 @@
         <v>261</v>
       </c>
       <c r="D33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2426,10 +2426,10 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2440,13 +2440,13 @@
         <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E35" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2460,10 +2460,10 @@
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2477,10 +2477,10 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2494,10 +2494,10 @@
         <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2511,10 +2511,10 @@
         <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2528,10 +2528,10 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2545,10 +2545,10 @@
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2562,10 +2562,10 @@
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2579,10 +2579,10 @@
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2596,10 +2596,10 @@
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2613,10 +2613,10 @@
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2630,10 +2630,10 @@
         <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -2661,13 +2661,13 @@
         <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E48" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -2678,13 +2678,13 @@
         <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E49" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -2695,13 +2695,13 @@
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E50" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -2712,13 +2712,13 @@
         <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E51" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -2729,13 +2729,13 @@
         <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E52" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -2746,13 +2746,13 @@
         <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E53" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -2763,13 +2763,13 @@
         <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E54" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -2780,13 +2780,13 @@
         <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E55" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -2981,10 +2981,10 @@
         <v>86</v>
       </c>
       <c r="E67" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -2998,10 +2998,10 @@
         <v>88</v>
       </c>
       <c r="E68" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>89</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -3046,13 +3046,13 @@
         <v>113</v>
       </c>
       <c r="D71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E71" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -3063,13 +3063,13 @@
         <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E72" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -3080,13 +3080,13 @@
         <v>113</v>
       </c>
       <c r="D73" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E73" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -3097,13 +3097,13 @@
         <v>270</v>
       </c>
       <c r="D74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E74" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>99</v>
       </c>
@@ -3114,13 +3114,13 @@
         <v>113</v>
       </c>
       <c r="D75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E75" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>100</v>
       </c>
@@ -3131,13 +3131,13 @@
         <v>113</v>
       </c>
       <c r="D76" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E76" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>232</v>
       </c>
@@ -3151,10 +3151,10 @@
         <v>233</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>101</v>
       </c>
@@ -3165,13 +3165,13 @@
         <v>102</v>
       </c>
       <c r="D78" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E78" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -3182,13 +3182,13 @@
         <v>102</v>
       </c>
       <c r="D79" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E79" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>104</v>
       </c>
@@ -3199,13 +3199,13 @@
         <v>102</v>
       </c>
       <c r="D80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E80" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>105</v>
       </c>
@@ -3216,13 +3216,13 @@
         <v>102</v>
       </c>
       <c r="D81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E81" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -3233,13 +3233,13 @@
         <v>102</v>
       </c>
       <c r="D82" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E82" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>107</v>
       </c>
@@ -3250,13 +3250,13 @@
         <v>102</v>
       </c>
       <c r="D83" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E83" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>108</v>
       </c>
@@ -3267,13 +3267,13 @@
         <v>102</v>
       </c>
       <c r="D84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E84" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>109</v>
       </c>
@@ -3284,13 +3284,13 @@
         <v>102</v>
       </c>
       <c r="D85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E85" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>110</v>
       </c>
@@ -3304,10 +3304,10 @@
         <v>111</v>
       </c>
       <c r="E86" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>112</v>
       </c>
@@ -3318,13 +3318,13 @@
         <v>113</v>
       </c>
       <c r="D87" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E87" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -3335,13 +3335,13 @@
         <v>113</v>
       </c>
       <c r="D88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E88" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -3352,13 +3352,13 @@
         <v>113</v>
       </c>
       <c r="D89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E89" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -3369,13 +3369,13 @@
         <v>113</v>
       </c>
       <c r="D90" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E90" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -3389,10 +3389,10 @@
         <v>118</v>
       </c>
       <c r="E91" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -3406,10 +3406,10 @@
         <v>118</v>
       </c>
       <c r="E92" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -3423,10 +3423,10 @@
         <v>118</v>
       </c>
       <c r="E93" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>121</v>
       </c>
@@ -3440,10 +3440,10 @@
         <v>216</v>
       </c>
       <c r="E94" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>122</v>
       </c>
@@ -3457,10 +3457,10 @@
         <v>118</v>
       </c>
       <c r="E95" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>123</v>
       </c>
@@ -3474,10 +3474,10 @@
         <v>118</v>
       </c>
       <c r="E96" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>124</v>
       </c>
@@ -3491,10 +3491,10 @@
         <v>118</v>
       </c>
       <c r="E97" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>125</v>
       </c>
@@ -3508,10 +3508,10 @@
         <v>118</v>
       </c>
       <c r="E98" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>126</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>130</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>131</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>132</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>133</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>135</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>136</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>137</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>138</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>139</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>140</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>141</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>142</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>143</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>144</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>145</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>146</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>147</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>148</v>
       </c>
@@ -3834,15 +3834,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>149</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="D118" t="s">
         <v>128</v>
@@ -3851,15 +3851,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>150</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D119" t="s">
         <v>128</v>
@@ -3868,7 +3868,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>151</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>152</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>153</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>154</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>155</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>156</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>157</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>158</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>159</v>
       </c>
@@ -4021,15 +4021,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>160</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D129" t="s">
         <v>128</v>
@@ -4038,7 +4038,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>161</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>162</v>
       </c>
@@ -4072,15 +4072,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>163</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D132" t="s">
         <v>128</v>
@@ -4089,7 +4089,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>164</v>
       </c>
@@ -4106,15 +4106,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>165</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D134" t="s">
         <v>128</v>
@@ -4123,7 +4123,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>166</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>167</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>168</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>169</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>170</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>171</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>172</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>173</v>
       </c>
@@ -4259,15 +4259,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>174</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D143" t="s">
         <v>128</v>
@@ -4276,7 +4276,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>175</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>176</v>
       </c>
@@ -4310,15 +4310,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>177</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D146" t="s">
         <v>128</v>
@@ -4327,7 +4327,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>178</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>179</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>180</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>181</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>182</v>
       </c>
@@ -4412,15 +4412,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>183</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D152" t="s">
         <v>128</v>
@@ -4429,12 +4429,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>184</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>241</v>
@@ -4446,12 +4446,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>185</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>241</v>
@@ -4463,7 +4463,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>186</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>187</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>188</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>189</v>
       </c>
@@ -4531,24 +4531,24 @@
         <v>129</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>190</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D159" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E159" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>192</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>194</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>196</v>
       </c>
@@ -4596,10 +4596,10 @@
         <v>198</v>
       </c>
       <c r="E162" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>199</v>
       </c>
@@ -4613,10 +4613,10 @@
         <v>200</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>201</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>204</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>205</v>
       </c>
@@ -4664,10 +4664,10 @@
         <v>200</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>206</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>209</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>211</v>
       </c>
@@ -4715,10 +4715,10 @@
         <v>198</v>
       </c>
       <c r="E169" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>212</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>214</v>
       </c>
@@ -4752,117 +4752,117 @@
         <v>216</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>217</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D172" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E172" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>218</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D173" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E173" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>219</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D174" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E174" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>220</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D175" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E175" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>221</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D176" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E176" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>222</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D177" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E177" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>234</v>
       </c>
       <c r="B178" t="s">
+        <v>287</v>
+      </c>
+      <c r="C178" t="s">
         <v>288</v>
-      </c>
-      <c r="C178" t="s">
-        <v>289</v>
       </c>
       <c r="D178" t="s">
         <v>223</v>
@@ -4871,7 +4871,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>235</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>241</v>
       </c>
       <c r="C179" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D179" t="s">
         <v>223</v>
@@ -4888,15 +4888,15 @@
         <v>224</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>225</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D180" t="s">
         <v>226</v>
@@ -4905,18 +4905,18 @@
         <v>227</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>228</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D181" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E181" t="s">
         <v>227</v>
